--- a/Code/Results/Cases/Case_1_144/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_144/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9378543728963962</v>
+        <v>1.150009477396964</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03330053856449666</v>
+        <v>0.1057530028625955</v>
       </c>
       <c r="E2">
-        <v>0.0733584689880793</v>
+        <v>0.176351281074016</v>
       </c>
       <c r="F2">
-        <v>1.653719150881713</v>
+        <v>2.667917174710539</v>
       </c>
       <c r="G2">
-        <v>1.386399394408443</v>
+        <v>1.924414947864392</v>
       </c>
       <c r="H2">
-        <v>0.9061227901060818</v>
+        <v>1.644247430075907</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1359056415644737</v>
+        <v>0.2823616107578868</v>
       </c>
       <c r="K2">
-        <v>1.240913910048448</v>
+        <v>0.4989959832325894</v>
       </c>
       <c r="L2">
-        <v>0.2460048315885217</v>
+        <v>0.1831972504997879</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8379476002044441</v>
+        <v>1.129709051907696</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03202845572337409</v>
+        <v>0.1058104823714352</v>
       </c>
       <c r="E3">
-        <v>0.07380708311929407</v>
+        <v>0.1769547775959062</v>
       </c>
       <c r="F3">
-        <v>1.588900825321815</v>
+        <v>2.663717253031209</v>
       </c>
       <c r="G3">
-        <v>1.319764996464457</v>
+        <v>1.916178103679371</v>
       </c>
       <c r="H3">
-        <v>0.8830736735496885</v>
+        <v>1.645702696212823</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1382234520409131</v>
+        <v>0.2835398909239224</v>
       </c>
       <c r="K3">
-        <v>1.075331042031706</v>
+        <v>0.4543013397459674</v>
       </c>
       <c r="L3">
-        <v>0.2137682618382684</v>
+        <v>0.1755946966196831</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7775166399059401</v>
+        <v>1.117799055574636</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03127036333171063</v>
+        <v>0.1058689386586096</v>
       </c>
       <c r="E4">
-        <v>0.0741284854280968</v>
+        <v>0.1773572025392971</v>
       </c>
       <c r="F4">
-        <v>1.551512938099322</v>
+        <v>2.662258506802431</v>
       </c>
       <c r="G4">
-        <v>1.281075355840471</v>
+        <v>1.912030327492957</v>
       </c>
       <c r="H4">
-        <v>0.8701725401279958</v>
+        <v>1.647214342052735</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1397245151109914</v>
+        <v>0.2843094493501059</v>
       </c>
       <c r="K4">
-        <v>0.9742521919044407</v>
+        <v>0.4270592133098319</v>
       </c>
       <c r="L4">
-        <v>0.1941491717366688</v>
+        <v>0.1710233903785934</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7531014367222326</v>
+        <v>1.113085524910815</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03096697275074689</v>
+        <v>0.1058986099945649</v>
       </c>
       <c r="E5">
-        <v>0.07427083445869265</v>
+        <v>0.1775292264870894</v>
       </c>
       <c r="F5">
-        <v>1.536850367322998</v>
+        <v>2.661945683103724</v>
       </c>
       <c r="G5">
-        <v>1.265834412720693</v>
+        <v>1.910568615098128</v>
       </c>
       <c r="H5">
-        <v>0.8652144009973597</v>
+        <v>1.647985809803743</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1403556129068697</v>
+        <v>0.2846346570401668</v>
       </c>
       <c r="K5">
-        <v>0.9331822887669432</v>
+        <v>0.4160085736265842</v>
       </c>
       <c r="L5">
-        <v>0.1861924086396982</v>
+        <v>0.1691849537376413</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7490595300419329</v>
+        <v>1.112311308868698</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03091692292278481</v>
+        <v>0.1059038909643242</v>
       </c>
       <c r="E6">
-        <v>0.07429515336984771</v>
+        <v>0.1775582765809061</v>
       </c>
       <c r="F6">
-        <v>1.534449358374729</v>
+        <v>2.661910748278885</v>
       </c>
       <c r="G6">
-        <v>1.263334446114229</v>
+        <v>1.910339696128602</v>
       </c>
       <c r="H6">
-        <v>0.8644087418309141</v>
+        <v>1.648123301792822</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1404615726709455</v>
+        <v>0.2846893590187705</v>
       </c>
       <c r="K6">
-        <v>0.9263691669562206</v>
+        <v>0.4141766977911914</v>
       </c>
       <c r="L6">
-        <v>0.1848733416044865</v>
+        <v>0.168881159690784</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7771865376008691</v>
+        <v>1.117734920253014</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03126624957523561</v>
+        <v>0.1058693150963137</v>
       </c>
       <c r="E7">
-        <v>0.07413035936973156</v>
+        <v>0.177359489967932</v>
       </c>
       <c r="F7">
-        <v>1.551312914385562</v>
+        <v>2.662253147677831</v>
       </c>
       <c r="G7">
-        <v>1.2808677271384</v>
+        <v>1.912009689257886</v>
       </c>
       <c r="H7">
-        <v>0.8701044812833487</v>
+        <v>1.647224116850353</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1397329480017113</v>
+        <v>0.284313788198336</v>
       </c>
       <c r="K7">
-        <v>0.9736978560811167</v>
+        <v>0.4269099746195479</v>
       </c>
       <c r="L7">
-        <v>0.1940417166811983</v>
+        <v>0.1709984976274228</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9032056862530737</v>
+        <v>1.142895050746318</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03285700589245977</v>
+        <v>0.1057680291380869</v>
       </c>
       <c r="E8">
-        <v>0.07350350224462687</v>
+        <v>0.1765527611519611</v>
       </c>
       <c r="F8">
-        <v>1.630848973151828</v>
+        <v>2.666236566723924</v>
       </c>
       <c r="G8">
-        <v>1.362941180532019</v>
+        <v>1.921385949046609</v>
       </c>
       <c r="H8">
-        <v>0.8979061991656039</v>
+        <v>1.644620933905742</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1366885333444738</v>
+        <v>0.2827583260077855</v>
       </c>
       <c r="K8">
-        <v>1.183681234604165</v>
+        <v>0.4835438149260938</v>
       </c>
       <c r="L8">
-        <v>0.2348499607808066</v>
+        <v>0.180555874319694</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.158471393727439</v>
+        <v>1.196618512426767</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03617088412720548</v>
+        <v>0.105752147573245</v>
       </c>
       <c r="E9">
-        <v>0.07264755247204491</v>
+        <v>0.1752229363972342</v>
       </c>
       <c r="F9">
-        <v>1.807545141007651</v>
+        <v>2.682938770788738</v>
       </c>
       <c r="G9">
-        <v>1.543179098810839</v>
+        <v>1.947003089062974</v>
       </c>
       <c r="H9">
-        <v>0.9631012074702596</v>
+        <v>1.644420480881678</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1313456521385437</v>
+        <v>0.2800729976249485</v>
       </c>
       <c r="K9">
-        <v>1.601502870367256</v>
+        <v>0.5961864943121498</v>
       </c>
       <c r="L9">
-        <v>0.3165359198155784</v>
+        <v>0.2000621912497991</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.352350336068298</v>
+        <v>1.238746992337212</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03874327880529549</v>
+        <v>0.1058505485410386</v>
       </c>
       <c r="E10">
-        <v>0.07225936721245496</v>
+        <v>0.1743986352954572</v>
       </c>
       <c r="F10">
-        <v>1.952403880302256</v>
+        <v>2.700640065682109</v>
       </c>
       <c r="G10">
-        <v>1.689838405406817</v>
+        <v>1.970253513255756</v>
       </c>
       <c r="H10">
-        <v>1.018636814076075</v>
+        <v>1.6472650858164</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1278156846453324</v>
+        <v>0.2783214658242859</v>
       </c>
       <c r="K10">
-        <v>1.914245456426642</v>
+        <v>0.6799098820933978</v>
       </c>
       <c r="L10">
-        <v>0.3779873870511636</v>
+        <v>0.2148573859723939</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.442260575151948</v>
+        <v>1.25848668746616</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0399483291380065</v>
+        <v>0.1059189407774639</v>
       </c>
       <c r="E11">
-        <v>0.07213823235492889</v>
+        <v>0.1740565897039872</v>
       </c>
       <c r="F11">
-        <v>2.02215618988123</v>
+        <v>2.70987447861998</v>
       </c>
       <c r="G11">
-        <v>1.760254408141805</v>
+        <v>1.981797524639603</v>
       </c>
       <c r="H11">
-        <v>1.045835536135286</v>
+        <v>1.649209426202191</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1262988209456495</v>
+        <v>0.2775724865391016</v>
       </c>
       <c r="K11">
-        <v>2.05828489704237</v>
+        <v>0.7182078301418358</v>
       </c>
       <c r="L11">
-        <v>0.4063593835312531</v>
+        <v>0.2216885365544954</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.476583842654179</v>
+        <v>1.266043967499826</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04041012264751487</v>
+        <v>0.1059482135259557</v>
       </c>
       <c r="E12">
-        <v>0.07210062971315878</v>
+        <v>0.1739317848068005</v>
       </c>
       <c r="F12">
-        <v>2.049177557925276</v>
+        <v>2.713541397400249</v>
       </c>
       <c r="G12">
-        <v>1.787506551853568</v>
+        <v>1.986308347817925</v>
       </c>
       <c r="H12">
-        <v>1.056438561973522</v>
+        <v>1.650039227284367</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1257375048618563</v>
+        <v>0.2772957242516725</v>
       </c>
       <c r="K12">
-        <v>2.113130177463944</v>
+        <v>0.7327405624313315</v>
       </c>
       <c r="L12">
-        <v>0.4171726165117633</v>
+        <v>0.2242897403403674</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.469178926139307</v>
+        <v>1.264412719191824</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04031041618226539</v>
+        <v>0.1059417594272496</v>
       </c>
       <c r="E13">
-        <v>0.07210835539653537</v>
+        <v>0.1739584540802266</v>
       </c>
       <c r="F13">
-        <v>2.043330095964563</v>
+        <v>2.712744096721906</v>
       </c>
       <c r="G13">
-        <v>1.78161027121385</v>
+        <v>1.985330659218079</v>
       </c>
       <c r="H13">
-        <v>1.054141088683139</v>
+        <v>1.649856355253263</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.125857807258754</v>
+        <v>0.2773550250858037</v>
       </c>
       <c r="K13">
-        <v>2.101304114430576</v>
+        <v>0.7296093434804618</v>
       </c>
       <c r="L13">
-        <v>0.4148405496639924</v>
+        <v>0.2237288857675139</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.445078655474845</v>
+        <v>1.259106782776939</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03998620880206616</v>
+        <v>0.1059212815765065</v>
       </c>
       <c r="E14">
-        <v>0.07213497126834234</v>
+        <v>0.174046227415138</v>
       </c>
       <c r="F14">
-        <v>2.024366752895475</v>
+        <v>2.710172749801146</v>
       </c>
       <c r="G14">
-        <v>1.762484357989365</v>
+        <v>1.98216583835449</v>
       </c>
       <c r="H14">
-        <v>1.046701619285869</v>
+        <v>1.649275820081954</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1262523770515873</v>
+        <v>0.2775495797354601</v>
       </c>
       <c r="K14">
-        <v>2.062790746740717</v>
+        <v>0.7194028447260621</v>
       </c>
       <c r="L14">
-        <v>0.4072475477021129</v>
+        <v>0.2219022511700075</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.430353442816966</v>
+        <v>1.2558674467885</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03978834881036164</v>
+        <v>0.1059091770087797</v>
       </c>
       <c r="E15">
-        <v>0.07215236025252736</v>
+        <v>0.1741006053900023</v>
       </c>
       <c r="F15">
-        <v>2.012831959041606</v>
+        <v>2.708619872978147</v>
       </c>
       <c r="G15">
-        <v>1.750847366019258</v>
+        <v>1.980245450355028</v>
       </c>
       <c r="H15">
-        <v>1.042185035084316</v>
+        <v>1.64893240501948</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1264957760506373</v>
+        <v>0.2776696430293857</v>
       </c>
       <c r="K15">
-        <v>2.039240790584586</v>
+        <v>0.7131549840154605</v>
       </c>
       <c r="L15">
-        <v>0.4026059415662502</v>
+        <v>0.2207852567452164</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.346511462460228</v>
+        <v>1.23746849503496</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03866526500599932</v>
+        <v>0.1058465523900516</v>
       </c>
       <c r="E16">
-        <v>0.07226842408842593</v>
+        <v>0.1744216501595535</v>
       </c>
       <c r="F16">
-        <v>1.947927430371266</v>
+        <v>2.700060366532426</v>
       </c>
       <c r="G16">
-        <v>1.685315603086508</v>
+        <v>1.969518571556705</v>
       </c>
       <c r="H16">
-        <v>1.016900356624689</v>
+        <v>1.647151105184918</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.127916629855946</v>
+        <v>0.2783713740799403</v>
       </c>
       <c r="K16">
-        <v>1.904871615557255</v>
+        <v>0.6774112547521725</v>
       </c>
       <c r="L16">
-        <v>0.3761423896077076</v>
+        <v>0.2144129735731894</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.295536441502861</v>
+        <v>1.226328357421011</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0379855241211331</v>
+        <v>0.1058141692170054</v>
       </c>
       <c r="E17">
-        <v>0.07235402964975535</v>
+        <v>0.1746270247038151</v>
       </c>
       <c r="F17">
-        <v>1.909134501432973</v>
+        <v>2.69511218036493</v>
       </c>
       <c r="G17">
-        <v>1.646099295186616</v>
+        <v>1.96318590903013</v>
       </c>
       <c r="H17">
-        <v>1.00190190438056</v>
+        <v>1.646224901507139</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1288112614016814</v>
+        <v>0.2788140965281123</v>
       </c>
       <c r="K17">
-        <v>1.822925530446071</v>
+        <v>0.6555376415124385</v>
       </c>
       <c r="L17">
-        <v>0.3600211539925056</v>
+        <v>0.2105295213633838</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.266376333268937</v>
+        <v>1.219975014702584</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03759780564877602</v>
+        <v>0.1057977687616543</v>
       </c>
       <c r="E18">
-        <v>0.07240846805204626</v>
+        <v>0.1747482514463119</v>
       </c>
       <c r="F18">
-        <v>1.887181259833312</v>
+        <v>2.69237736584688</v>
       </c>
       <c r="G18">
-        <v>1.623887791019257</v>
+        <v>1.959634557939893</v>
       </c>
       <c r="H18">
-        <v>0.9934557153509331</v>
+        <v>1.645753383904093</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.129334181722637</v>
+        <v>0.279073238881324</v>
       </c>
       <c r="K18">
-        <v>1.775956036713296</v>
+        <v>0.6429764682472126</v>
       </c>
       <c r="L18">
-        <v>0.3507873262103374</v>
+        <v>0.2083053500804652</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.25652972863395</v>
+        <v>1.217833198980316</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03746707609593614</v>
+        <v>0.1057925988079838</v>
       </c>
       <c r="E19">
-        <v>0.07242778457170296</v>
+        <v>0.1747898297631281</v>
       </c>
       <c r="F19">
-        <v>1.879808453328934</v>
+        <v>2.691470509862086</v>
       </c>
       <c r="G19">
-        <v>1.616424957418985</v>
+        <v>1.958447757767431</v>
       </c>
       <c r="H19">
-        <v>0.9906262557148011</v>
+        <v>1.645604248875543</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1295126592918834</v>
+        <v>0.2791617533508113</v>
       </c>
       <c r="K19">
-        <v>1.76007976128102</v>
+        <v>0.6387269071833259</v>
       </c>
       <c r="L19">
-        <v>0.3476672831369712</v>
+        <v>0.2075539162288891</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.300946117185589</v>
+        <v>1.227508640863277</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03805754415467177</v>
+        <v>0.105817386303773</v>
       </c>
       <c r="E20">
-        <v>0.07234437652521208</v>
+        <v>0.1746048414305097</v>
       </c>
       <c r="F20">
-        <v>1.913226504782585</v>
+        <v>2.695627408581757</v>
       </c>
       <c r="G20">
-        <v>1.650237881820033</v>
+        <v>1.963850608703666</v>
       </c>
       <c r="H20">
-        <v>1.003479656572324</v>
+        <v>1.646317162383298</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1287151598674505</v>
+        <v>0.2787665023238741</v>
       </c>
       <c r="K20">
-        <v>1.831631566485328</v>
+        <v>0.6578640625168077</v>
       </c>
       <c r="L20">
-        <v>0.3617332187496061</v>
+        <v>0.210941940203881</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.452149742586442</v>
+        <v>1.260663035134399</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04008128410110956</v>
+        <v>0.1059272050339644</v>
       </c>
       <c r="E21">
-        <v>0.07212692665784104</v>
+        <v>0.1740203182724791</v>
       </c>
       <c r="F21">
-        <v>2.029919805569577</v>
+        <v>2.710923401084031</v>
       </c>
       <c r="G21">
-        <v>1.76808570377122</v>
+        <v>1.983091638760214</v>
       </c>
       <c r="H21">
-        <v>1.048878323931604</v>
+        <v>1.649443799124157</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1261361246584229</v>
+        <v>0.27749224825269</v>
       </c>
       <c r="K21">
-        <v>2.074094508554055</v>
+        <v>0.7223999256077605</v>
       </c>
       <c r="L21">
-        <v>0.4094758348063436</v>
+        <v>0.2224383880656831</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.552595767994063</v>
+        <v>1.282810775302153</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04143603245729111</v>
+        <v>0.1060186339053608</v>
       </c>
       <c r="E22">
-        <v>0.07203316209684374</v>
+        <v>0.1736658052998887</v>
       </c>
       <c r="F22">
-        <v>2.109755942192834</v>
+        <v>2.721911416469595</v>
       </c>
       <c r="G22">
-        <v>1.848557603517975</v>
+        <v>1.996479163484992</v>
       </c>
       <c r="H22">
-        <v>1.080331161834238</v>
+        <v>1.652032356235793</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1245270147053397</v>
+        <v>0.2766994280007093</v>
       </c>
       <c r="K22">
-        <v>2.234335113455074</v>
+        <v>0.7647533222240952</v>
       </c>
       <c r="L22">
-        <v>0.4410877406383804</v>
+        <v>0.2300358468518482</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.498826548008424</v>
+        <v>1.270946383992055</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04070987441392759</v>
+        <v>0.1059680458441044</v>
       </c>
       <c r="E23">
-        <v>0.07207867745489516</v>
+        <v>0.1738525037437508</v>
       </c>
       <c r="F23">
-        <v>2.066800323624207</v>
+        <v>2.715956185640977</v>
       </c>
       <c r="G23">
-        <v>1.805272881539423</v>
+        <v>1.98925956794028</v>
       </c>
       <c r="H23">
-        <v>1.063372190435587</v>
+        <v>1.650600913585095</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.125378727944998</v>
+        <v>0.2771189176176385</v>
       </c>
       <c r="K23">
-        <v>2.148632751135665</v>
+        <v>0.7421325652495057</v>
       </c>
       <c r="L23">
-        <v>0.4241750949914405</v>
+        <v>0.2259732962224916</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.298499949927759</v>
+        <v>1.226974874982517</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03802497435765773</v>
+        <v>0.1058159249522959</v>
       </c>
       <c r="E24">
-        <v>0.07234872445745211</v>
+        <v>0.1746148606627571</v>
       </c>
       <c r="F24">
-        <v>1.911375425953793</v>
+        <v>2.695394131368332</v>
       </c>
       <c r="G24">
-        <v>1.648365789095806</v>
+        <v>1.963549819576627</v>
       </c>
       <c r="H24">
-        <v>1.002765806546336</v>
+        <v>1.646275261314344</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1287585806538356</v>
+        <v>0.2787880052866551</v>
       </c>
       <c r="K24">
-        <v>1.827695127462647</v>
+        <v>0.6568122431467884</v>
       </c>
       <c r="L24">
-        <v>0.3609590875550737</v>
+        <v>0.2107554592351022</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.088408398636915</v>
+        <v>1.181617071143648</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03525172723560033</v>
+        <v>0.1057370193641951</v>
       </c>
       <c r="E25">
-        <v>0.07283785463046133</v>
+        <v>0.1755557973576609</v>
       </c>
       <c r="F25">
-        <v>1.757288468394989</v>
+        <v>2.677467521342052</v>
       </c>
       <c r="G25">
-        <v>1.49211080453594</v>
+        <v>1.939296674329711</v>
       </c>
       <c r="H25">
-        <v>0.9442102864250046</v>
+        <v>1.643949454177232</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1327226018484886</v>
+        <v>0.2807604951045359</v>
       </c>
       <c r="K25">
-        <v>1.487619230566992</v>
+        <v>0.5655442008802538</v>
       </c>
       <c r="L25">
-        <v>0.2942182033716989</v>
+        <v>0.1947036063300374</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_144/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_144/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.150009477396964</v>
+        <v>0.9378543728964246</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1057530028625955</v>
+        <v>0.03330053856450021</v>
       </c>
       <c r="E2">
-        <v>0.176351281074016</v>
+        <v>0.0733584689880793</v>
       </c>
       <c r="F2">
-        <v>2.667917174710539</v>
+        <v>1.653719150881727</v>
       </c>
       <c r="G2">
-        <v>1.924414947864392</v>
+        <v>1.386399394408443</v>
       </c>
       <c r="H2">
-        <v>1.644247430075907</v>
+        <v>0.9061227901059681</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2823616107578868</v>
+        <v>0.1359056415644844</v>
       </c>
       <c r="K2">
-        <v>0.4989959832325894</v>
+        <v>1.240913910048391</v>
       </c>
       <c r="L2">
-        <v>0.1831972504997879</v>
+        <v>0.2460048315885928</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.129709051907696</v>
+        <v>0.837947600204501</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1058104823714352</v>
+        <v>0.03202845572320356</v>
       </c>
       <c r="E3">
-        <v>0.1769547775959062</v>
+        <v>0.07380708311929229</v>
       </c>
       <c r="F3">
-        <v>2.663717253031209</v>
+        <v>1.588900825321801</v>
       </c>
       <c r="G3">
-        <v>1.916178103679371</v>
+        <v>1.319764996464428</v>
       </c>
       <c r="H3">
-        <v>1.645702696212823</v>
+        <v>0.8830736735497879</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2835398909239224</v>
+        <v>0.138223452040922</v>
       </c>
       <c r="K3">
-        <v>0.4543013397459674</v>
+        <v>1.07533104203165</v>
       </c>
       <c r="L3">
-        <v>0.1755946966196831</v>
+        <v>0.2137682618383678</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.117799055574636</v>
+        <v>0.7775166399059401</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1058689386586096</v>
+        <v>0.03127036333208366</v>
       </c>
       <c r="E4">
-        <v>0.1773572025392971</v>
+        <v>0.07412848542807371</v>
       </c>
       <c r="F4">
-        <v>2.662258506802431</v>
+        <v>1.551512938099322</v>
       </c>
       <c r="G4">
-        <v>1.912030327492957</v>
+        <v>1.281075355840457</v>
       </c>
       <c r="H4">
-        <v>1.647214342052735</v>
+        <v>0.8701725401281095</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2843094493501059</v>
+        <v>0.1397245151110393</v>
       </c>
       <c r="K4">
-        <v>0.4270592133098319</v>
+        <v>0.9742521919043838</v>
       </c>
       <c r="L4">
-        <v>0.1710233903785934</v>
+        <v>0.194149171736683</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.113085524910815</v>
+        <v>0.7531014367223747</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1058986099945649</v>
+        <v>0.03096697275075044</v>
       </c>
       <c r="E5">
-        <v>0.1775292264870894</v>
+        <v>0.07427083445862515</v>
       </c>
       <c r="F5">
-        <v>2.661945683103724</v>
+        <v>1.536850367323026</v>
       </c>
       <c r="G5">
-        <v>1.910568615098128</v>
+        <v>1.265834412720679</v>
       </c>
       <c r="H5">
-        <v>1.647985809803743</v>
+        <v>0.8652144009973739</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2846346570401668</v>
+        <v>0.1403556129068626</v>
       </c>
       <c r="K5">
-        <v>0.4160085736265842</v>
+        <v>0.9331822887668295</v>
       </c>
       <c r="L5">
-        <v>0.1691849537376413</v>
+        <v>0.1861924086397266</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.112311308868698</v>
+        <v>0.7490595300419329</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1059038909643242</v>
+        <v>0.03091692292279191</v>
       </c>
       <c r="E6">
-        <v>0.1775582765809061</v>
+        <v>0.07429515336981307</v>
       </c>
       <c r="F6">
-        <v>2.661910748278885</v>
+        <v>1.534449358374744</v>
       </c>
       <c r="G6">
-        <v>1.910339696128602</v>
+        <v>1.263334446114271</v>
       </c>
       <c r="H6">
-        <v>1.648123301792822</v>
+        <v>0.8644087418309141</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2846893590187705</v>
+        <v>0.1404615726709508</v>
       </c>
       <c r="K6">
-        <v>0.4141766977911914</v>
+        <v>0.9263691669561069</v>
       </c>
       <c r="L6">
-        <v>0.168881159690784</v>
+        <v>0.1848733416044865</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.117734920253014</v>
+        <v>0.7771865376008691</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1058693150963137</v>
+        <v>0.0312662495751681</v>
       </c>
       <c r="E7">
-        <v>0.177359489967932</v>
+        <v>0.074130359369728</v>
       </c>
       <c r="F7">
-        <v>2.662253147677831</v>
+        <v>1.551312914385576</v>
       </c>
       <c r="G7">
-        <v>1.912009689257886</v>
+        <v>1.280867727138357</v>
       </c>
       <c r="H7">
-        <v>1.647224116850353</v>
+        <v>0.8701044812833487</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.284313788198336</v>
+        <v>0.1397329480017042</v>
       </c>
       <c r="K7">
-        <v>0.4269099746195479</v>
+        <v>0.9736978560810883</v>
       </c>
       <c r="L7">
-        <v>0.1709984976274228</v>
+        <v>0.1940417166811983</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.142895050746318</v>
+        <v>0.9032056862531306</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1057680291380869</v>
+        <v>0.03285700589246332</v>
       </c>
       <c r="E8">
-        <v>0.1765527611519611</v>
+        <v>0.07350350224464286</v>
       </c>
       <c r="F8">
-        <v>2.666236566723924</v>
+        <v>1.630848973151828</v>
       </c>
       <c r="G8">
-        <v>1.921385949046609</v>
+        <v>1.362941180532147</v>
       </c>
       <c r="H8">
-        <v>1.644620933905742</v>
+        <v>0.8979061991655897</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2827583260077855</v>
+        <v>0.1366885333444063</v>
       </c>
       <c r="K8">
-        <v>0.4835438149260938</v>
+        <v>1.183681234604052</v>
       </c>
       <c r="L8">
-        <v>0.180555874319694</v>
+        <v>0.2348499607807213</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.196618512426767</v>
+        <v>1.158471393727382</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.105752147573245</v>
+        <v>0.03617088412741509</v>
       </c>
       <c r="E9">
-        <v>0.1752229363972342</v>
+        <v>0.07264755247204491</v>
       </c>
       <c r="F9">
-        <v>2.682938770788738</v>
+        <v>1.807545141007665</v>
       </c>
       <c r="G9">
-        <v>1.947003089062974</v>
+        <v>1.543179098810924</v>
       </c>
       <c r="H9">
-        <v>1.644420480881678</v>
+        <v>0.9631012074703733</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2800729976249485</v>
+        <v>0.1313456521386325</v>
       </c>
       <c r="K9">
-        <v>0.5961864943121498</v>
+        <v>1.601502870367227</v>
       </c>
       <c r="L9">
-        <v>0.2000621912497991</v>
+        <v>0.3165359198155215</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.238746992337212</v>
+        <v>1.352350336068298</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1058505485410386</v>
+        <v>0.03874327880510364</v>
       </c>
       <c r="E10">
-        <v>0.1743986352954572</v>
+        <v>0.07225936721247983</v>
       </c>
       <c r="F10">
-        <v>2.700640065682109</v>
+        <v>1.952403880302271</v>
       </c>
       <c r="G10">
-        <v>1.970253513255756</v>
+        <v>1.689838405406903</v>
       </c>
       <c r="H10">
-        <v>1.6472650858164</v>
+        <v>1.018636814076075</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2783214658242859</v>
+        <v>0.1278156846453342</v>
       </c>
       <c r="K10">
-        <v>0.6799098820933978</v>
+        <v>1.91424545642667</v>
       </c>
       <c r="L10">
-        <v>0.2148573859723939</v>
+        <v>0.3779873870510784</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.25848668746616</v>
+        <v>1.44226057515192</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1059189407774639</v>
+        <v>0.03994832913779334</v>
       </c>
       <c r="E11">
-        <v>0.1740565897039872</v>
+        <v>0.07213823235492711</v>
       </c>
       <c r="F11">
-        <v>2.70987447861998</v>
+        <v>2.02215618988123</v>
       </c>
       <c r="G11">
-        <v>1.981797524639603</v>
+        <v>1.760254408141918</v>
       </c>
       <c r="H11">
-        <v>1.649209426202191</v>
+        <v>1.045835536135286</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2775724865391016</v>
+        <v>0.126298820945653</v>
       </c>
       <c r="K11">
-        <v>0.7182078301418358</v>
+        <v>2.05828489704237</v>
       </c>
       <c r="L11">
-        <v>0.2216885365544954</v>
+        <v>0.4063593835312957</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.266043967499826</v>
+        <v>1.476583842654208</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1059482135259557</v>
+        <v>0.0404101226478133</v>
       </c>
       <c r="E12">
-        <v>0.1739317848068005</v>
+        <v>0.07210062971314279</v>
       </c>
       <c r="F12">
-        <v>2.713541397400249</v>
+        <v>2.049177557925276</v>
       </c>
       <c r="G12">
-        <v>1.986308347817925</v>
+        <v>1.787506551853625</v>
       </c>
       <c r="H12">
-        <v>1.650039227284367</v>
+        <v>1.056438561973494</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2772957242516725</v>
+        <v>0.125737504861787</v>
       </c>
       <c r="K12">
-        <v>0.7327405624313315</v>
+        <v>2.113130177463944</v>
       </c>
       <c r="L12">
-        <v>0.2242897403403674</v>
+        <v>0.4171726165117491</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.264412719191824</v>
+        <v>1.469178926139278</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1059417594272496</v>
+        <v>0.04031041618225473</v>
       </c>
       <c r="E13">
-        <v>0.1739584540802266</v>
+        <v>0.07210835539654781</v>
       </c>
       <c r="F13">
-        <v>2.712744096721906</v>
+        <v>2.043330095964606</v>
       </c>
       <c r="G13">
-        <v>1.985330659218079</v>
+        <v>1.78161027121385</v>
       </c>
       <c r="H13">
-        <v>1.649856355253263</v>
+        <v>1.054141088683167</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2773550250858037</v>
+        <v>0.1258578072586882</v>
       </c>
       <c r="K13">
-        <v>0.7296093434804618</v>
+        <v>2.101304114430576</v>
       </c>
       <c r="L13">
-        <v>0.2237288857675139</v>
+        <v>0.4148405496640777</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.259106782776939</v>
+        <v>1.445078655474788</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1059212815765065</v>
+        <v>0.03998620880206971</v>
       </c>
       <c r="E14">
-        <v>0.174046227415138</v>
+        <v>0.07213497126834767</v>
       </c>
       <c r="F14">
-        <v>2.710172749801146</v>
+        <v>2.024366752895475</v>
       </c>
       <c r="G14">
-        <v>1.98216583835449</v>
+        <v>1.762484357989337</v>
       </c>
       <c r="H14">
-        <v>1.649275820081954</v>
+        <v>1.046701619285898</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2775495797354601</v>
+        <v>0.1262523770515465</v>
       </c>
       <c r="K14">
-        <v>0.7194028447260621</v>
+        <v>2.062790746740745</v>
       </c>
       <c r="L14">
-        <v>0.2219022511700075</v>
+        <v>0.4072475477020703</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.2558674467885</v>
+        <v>1.430353442816966</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1059091770087797</v>
+        <v>0.03978834881036519</v>
       </c>
       <c r="E15">
-        <v>0.1741006053900023</v>
+        <v>0.07215236025251137</v>
       </c>
       <c r="F15">
-        <v>2.708619872978147</v>
+        <v>2.012831959041606</v>
       </c>
       <c r="G15">
-        <v>1.980245450355028</v>
+        <v>1.750847366019229</v>
       </c>
       <c r="H15">
-        <v>1.64893240501948</v>
+        <v>1.042185035084316</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2776696430293857</v>
+        <v>0.126495776050735</v>
       </c>
       <c r="K15">
-        <v>0.7131549840154605</v>
+        <v>2.039240790584586</v>
       </c>
       <c r="L15">
-        <v>0.2207852567452164</v>
+        <v>0.4026059415663354</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.23746849503496</v>
+        <v>1.346511462460086</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1058465523900516</v>
+        <v>0.03866526500600287</v>
       </c>
       <c r="E16">
-        <v>0.1744216501595535</v>
+        <v>0.07226842408844902</v>
       </c>
       <c r="F16">
-        <v>2.700060366532426</v>
+        <v>1.947927430371237</v>
       </c>
       <c r="G16">
-        <v>1.969518571556705</v>
+        <v>1.685315603086508</v>
       </c>
       <c r="H16">
-        <v>1.647151105184918</v>
+        <v>1.016900356624689</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2783713740799403</v>
+        <v>0.1279166298558589</v>
       </c>
       <c r="K16">
-        <v>0.6774112547521725</v>
+        <v>1.904871615557227</v>
       </c>
       <c r="L16">
-        <v>0.2144129735731894</v>
+        <v>0.3761423896077218</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.226328357421011</v>
+        <v>1.295536441502861</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1058141692170054</v>
+        <v>0.03798552412112599</v>
       </c>
       <c r="E17">
-        <v>0.1746270247038151</v>
+        <v>0.07235402964974469</v>
       </c>
       <c r="F17">
-        <v>2.69511218036493</v>
+        <v>1.909134501432959</v>
       </c>
       <c r="G17">
-        <v>1.96318590903013</v>
+        <v>1.646099295186559</v>
       </c>
       <c r="H17">
-        <v>1.646224901507139</v>
+        <v>1.00190190438056</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2788140965281123</v>
+        <v>0.1288112614015482</v>
       </c>
       <c r="K17">
-        <v>0.6555376415124385</v>
+        <v>1.822925530446184</v>
       </c>
       <c r="L17">
-        <v>0.2105295213633838</v>
+        <v>0.3600211539925908</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.219975014702584</v>
+        <v>1.266376333269022</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1057977687616543</v>
+        <v>0.03759780564877957</v>
       </c>
       <c r="E18">
-        <v>0.1747482514463119</v>
+        <v>0.07240846805204804</v>
       </c>
       <c r="F18">
-        <v>2.69237736584688</v>
+        <v>1.887181259833312</v>
       </c>
       <c r="G18">
-        <v>1.959634557939893</v>
+        <v>1.6238877910192</v>
       </c>
       <c r="H18">
-        <v>1.645753383904093</v>
+        <v>0.9934557153509616</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.279073238881324</v>
+        <v>0.1293341817226441</v>
       </c>
       <c r="K18">
-        <v>0.6429764682472126</v>
+        <v>1.775956036713296</v>
       </c>
       <c r="L18">
-        <v>0.2083053500804652</v>
+        <v>0.3507873262103232</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.217833198980316</v>
+        <v>1.25652972863395</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1057925988079838</v>
+        <v>0.03746707609593614</v>
       </c>
       <c r="E19">
-        <v>0.1747898297631281</v>
+        <v>0.07242778457168697</v>
       </c>
       <c r="F19">
-        <v>2.691470509862086</v>
+        <v>1.879808453328963</v>
       </c>
       <c r="G19">
-        <v>1.958447757767431</v>
+        <v>1.616424957418985</v>
       </c>
       <c r="H19">
-        <v>1.645604248875543</v>
+        <v>0.9906262557147159</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2791617533508113</v>
+        <v>0.1295126592918674</v>
       </c>
       <c r="K19">
-        <v>0.6387269071833259</v>
+        <v>1.760079761281048</v>
       </c>
       <c r="L19">
-        <v>0.2075539162288891</v>
+        <v>0.3476672831369427</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.227508640863277</v>
+        <v>1.300946117185447</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.105817386303773</v>
+        <v>0.03805754415476414</v>
       </c>
       <c r="E20">
-        <v>0.1746048414305097</v>
+        <v>0.07234437652522807</v>
       </c>
       <c r="F20">
-        <v>2.695627408581757</v>
+        <v>1.913226504782585</v>
       </c>
       <c r="G20">
-        <v>1.963850608703666</v>
+        <v>1.650237881820033</v>
       </c>
       <c r="H20">
-        <v>1.646317162383298</v>
+        <v>1.003479656572324</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2787665023238741</v>
+        <v>0.128715159867399</v>
       </c>
       <c r="K20">
-        <v>0.6578640625168077</v>
+        <v>1.831631566485271</v>
       </c>
       <c r="L20">
-        <v>0.210941940203881</v>
+        <v>0.3617332187496913</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.260663035134399</v>
+        <v>1.452149742586442</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1059272050339644</v>
+        <v>0.04008128410110956</v>
       </c>
       <c r="E21">
-        <v>0.1740203182724791</v>
+        <v>0.07212692665783926</v>
       </c>
       <c r="F21">
-        <v>2.710923401084031</v>
+        <v>2.029919805569591</v>
       </c>
       <c r="G21">
-        <v>1.983091638760214</v>
+        <v>1.768085703771277</v>
       </c>
       <c r="H21">
-        <v>1.649443799124157</v>
+        <v>1.048878323931717</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.27749224825269</v>
+        <v>0.1261361246585277</v>
       </c>
       <c r="K21">
-        <v>0.7223999256077605</v>
+        <v>2.074094508554111</v>
       </c>
       <c r="L21">
-        <v>0.2224383880656831</v>
+        <v>0.4094758348063294</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.282810775302153</v>
+        <v>1.552595767994063</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1060186339053608</v>
+        <v>0.04143603245739058</v>
       </c>
       <c r="E22">
-        <v>0.1736658052998887</v>
+        <v>0.07203316209684552</v>
       </c>
       <c r="F22">
-        <v>2.721911416469595</v>
+        <v>2.109755942192848</v>
       </c>
       <c r="G22">
-        <v>1.996479163484992</v>
+        <v>1.848557603517861</v>
       </c>
       <c r="H22">
-        <v>1.652032356235793</v>
+        <v>1.080331161834295</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2766994280007093</v>
+        <v>0.1245270147052917</v>
       </c>
       <c r="K22">
-        <v>0.7647533222240952</v>
+        <v>2.234335113455046</v>
       </c>
       <c r="L22">
-        <v>0.2300358468518482</v>
+        <v>0.4410877406384088</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.270946383992055</v>
+        <v>1.498826548008338</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1059680458441044</v>
+        <v>0.04070987441392759</v>
       </c>
       <c r="E23">
-        <v>0.1738525037437508</v>
+        <v>0.0720786774548916</v>
       </c>
       <c r="F23">
-        <v>2.715956185640977</v>
+        <v>2.066800323624207</v>
       </c>
       <c r="G23">
-        <v>1.98925956794028</v>
+        <v>1.805272881539395</v>
       </c>
       <c r="H23">
-        <v>1.650600913585095</v>
+        <v>1.063372190435587</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2771189176176385</v>
+        <v>0.1253787279450442</v>
       </c>
       <c r="K23">
-        <v>0.7421325652495057</v>
+        <v>2.148632751135722</v>
       </c>
       <c r="L23">
-        <v>0.2259732962224916</v>
+        <v>0.4241750949913978</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.226974874982517</v>
+        <v>1.298499949927901</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1058159249522959</v>
+        <v>0.03802497435767904</v>
       </c>
       <c r="E24">
-        <v>0.1746148606627571</v>
+        <v>0.07234872445745921</v>
       </c>
       <c r="F24">
-        <v>2.695394131368332</v>
+        <v>1.911375425953779</v>
       </c>
       <c r="G24">
-        <v>1.963549819576627</v>
+        <v>1.648365789095749</v>
       </c>
       <c r="H24">
-        <v>1.646275261314344</v>
+        <v>1.002765806546336</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2787880052866551</v>
+        <v>0.1287585806537823</v>
       </c>
       <c r="K24">
-        <v>0.6568122431467884</v>
+        <v>1.827695127462704</v>
       </c>
       <c r="L24">
-        <v>0.2107554592351022</v>
+        <v>0.3609590875550168</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.181617071143648</v>
+        <v>1.088408398637057</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1057370193641951</v>
+        <v>0.03525172723560388</v>
       </c>
       <c r="E25">
-        <v>0.1755557973576609</v>
+        <v>0.07283785463045245</v>
       </c>
       <c r="F25">
-        <v>2.677467521342052</v>
+        <v>1.757288468394989</v>
       </c>
       <c r="G25">
-        <v>1.939296674329711</v>
+        <v>1.492110804535884</v>
       </c>
       <c r="H25">
-        <v>1.643949454177232</v>
+        <v>0.9442102864251183</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2807604951045359</v>
+        <v>0.1327226018483429</v>
       </c>
       <c r="K25">
-        <v>0.5655442008802538</v>
+        <v>1.487619230566992</v>
       </c>
       <c r="L25">
-        <v>0.1947036063300374</v>
+        <v>0.2942182033715284</v>
       </c>
       <c r="M25">
         <v>0</v>
